--- a/data/5212.xlsx
+++ b/data/5212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42975,6 +42975,41 @@
         <v>83000</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5212</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>PAVREIT</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>233600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5212.xlsx
+++ b/data/5212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43010,6 +43010,41 @@
         <v>233600</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5212</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>PAVREIT</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>10306800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5212.xlsx
+++ b/data/5212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43045,6 +43045,41 @@
         <v>10306800</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5212</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>PAVREIT</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>1242100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5212.xlsx
+++ b/data/5212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43080,6 +43080,41 @@
         <v>1242100</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5212</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>PAVREIT</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>1848100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5212.xlsx
+++ b/data/5212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43115,6 +43115,41 @@
         <v>1848100</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5212</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>PAVREIT</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>143700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5212.xlsx
+++ b/data/5212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43150,6 +43150,41 @@
         <v>143700</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5212</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>PAVREIT</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>4533500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5212.xlsx
+++ b/data/5212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43185,6 +43185,41 @@
         <v>4533500</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5212</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>PAVREIT</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>5101200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5212.xlsx
+++ b/data/5212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43220,6 +43220,41 @@
         <v>5101200</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5212</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>PAVREIT</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>2326700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5212.xlsx
+++ b/data/5212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43255,6 +43255,41 @@
         <v>2326700</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5212</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>PAVREIT</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>75000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5212.xlsx
+++ b/data/5212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43290,6 +43290,41 @@
         <v>75000</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5212</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>PAVREIT</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>47400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5212.xlsx
+++ b/data/5212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43325,6 +43325,41 @@
         <v>47400</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5212</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>PAVREIT</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>15300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5212.xlsx
+++ b/data/5212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43360,6 +43360,41 @@
         <v>15300</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5212</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>PAVREIT</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>105200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5212.xlsx
+++ b/data/5212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43395,6 +43395,76 @@
         <v>105200</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5212</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>PAVREIT</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>92200</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5212</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>PAVREIT</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>1933100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5212.xlsx
+++ b/data/5212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43465,6 +43465,76 @@
         <v>1933100</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5212</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>PAVREIT</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>627100</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>5212</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>PAVREIT</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>1746700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5212.xlsx
+++ b/data/5212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43535,6 +43535,41 @@
         <v>1746700</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>5212</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>PAVREIT</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>1953100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5212.xlsx
+++ b/data/5212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43570,6 +43570,41 @@
         <v>1953100</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>5212</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>PAVREIT</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>61700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5212.xlsx
+++ b/data/5212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43605,6 +43605,41 @@
         <v>61700</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>5212</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>PAVREIT</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>148200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5212.xlsx
+++ b/data/5212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43640,6 +43640,41 @@
         <v>148200</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>5212</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>PAVREIT</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>224900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5212.xlsx
+++ b/data/5212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43675,6 +43675,76 @@
         <v>224900</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>5212</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>PAVREIT</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>292300</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>5212</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>PAVREIT</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>1427000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5212.xlsx
+++ b/data/5212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43745,6 +43745,41 @@
         <v>1427000</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>5212</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>PAVREIT</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>4397000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5212.xlsx
+++ b/data/5212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43780,6 +43780,41 @@
         <v>4397000</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>5212</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>PAVREIT</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>4172500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5212.xlsx
+++ b/data/5212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2030"/>
+  <dimension ref="A1:I2031"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71430,6 +71430,41 @@
         <v>4172500</v>
       </c>
     </row>
+    <row r="2031">
+      <c r="A2031" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2031" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2031" t="inlineStr">
+        <is>
+          <t>5212</t>
+        </is>
+      </c>
+      <c r="D2031" t="inlineStr">
+        <is>
+          <t>PAVREIT</t>
+        </is>
+      </c>
+      <c r="E2031" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="F2031" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="G2031" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H2031" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="I2031" t="n">
+        <v>3170900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5212.xlsx
+++ b/data/5212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2031"/>
+  <dimension ref="A1:I2032"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71465,6 +71465,41 @@
         <v>3170900</v>
       </c>
     </row>
+    <row r="2032">
+      <c r="A2032" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2032" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2032" t="inlineStr">
+        <is>
+          <t>5212</t>
+        </is>
+      </c>
+      <c r="D2032" t="inlineStr">
+        <is>
+          <t>PAVREIT</t>
+        </is>
+      </c>
+      <c r="E2032" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="F2032" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="G2032" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H2032" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="I2032" t="n">
+        <v>1016000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5212.xlsx
+++ b/data/5212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2032"/>
+  <dimension ref="A1:I2033"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71500,6 +71500,41 @@
         <v>1016000</v>
       </c>
     </row>
+    <row r="2033">
+      <c r="A2033" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2033" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2033" t="inlineStr">
+        <is>
+          <t>5212</t>
+        </is>
+      </c>
+      <c r="D2033" t="inlineStr">
+        <is>
+          <t>PAVREIT</t>
+        </is>
+      </c>
+      <c r="E2033" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="F2033" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="G2033" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H2033" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="I2033" t="n">
+        <v>3039100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5212.xlsx
+++ b/data/5212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2033"/>
+  <dimension ref="A1:I2034"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71535,6 +71535,41 @@
         <v>3039100</v>
       </c>
     </row>
+    <row r="2034">
+      <c r="A2034" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2034" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2034" t="inlineStr">
+        <is>
+          <t>5212</t>
+        </is>
+      </c>
+      <c r="D2034" t="inlineStr">
+        <is>
+          <t>PAVREIT</t>
+        </is>
+      </c>
+      <c r="E2034" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="F2034" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="G2034" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="H2034" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="I2034" t="n">
+        <v>3335200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5212.xlsx
+++ b/data/5212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2034"/>
+  <dimension ref="A1:I2035"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71570,6 +71570,41 @@
         <v>3335200</v>
       </c>
     </row>
+    <row r="2035">
+      <c r="A2035" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2035" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2035" t="inlineStr">
+        <is>
+          <t>5212</t>
+        </is>
+      </c>
+      <c r="D2035" t="inlineStr">
+        <is>
+          <t>PAVREIT</t>
+        </is>
+      </c>
+      <c r="E2035" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F2035" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="G2035" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="H2035" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="I2035" t="n">
+        <v>1446100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5212.xlsx
+++ b/data/5212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2035"/>
+  <dimension ref="A1:I2036"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71605,6 +71605,41 @@
         <v>1446100</v>
       </c>
     </row>
+    <row r="2036">
+      <c r="A2036" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2036" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2036" t="inlineStr">
+        <is>
+          <t>5212</t>
+        </is>
+      </c>
+      <c r="D2036" t="inlineStr">
+        <is>
+          <t>PAVREIT</t>
+        </is>
+      </c>
+      <c r="E2036" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="F2036" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="G2036" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H2036" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="I2036" t="n">
+        <v>524200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5212.xlsx
+++ b/data/5212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2036"/>
+  <dimension ref="A1:I2037"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71640,6 +71640,41 @@
         <v>524200</v>
       </c>
     </row>
+    <row r="2037">
+      <c r="A2037" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2037" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2037" t="inlineStr">
+        <is>
+          <t>5212</t>
+        </is>
+      </c>
+      <c r="D2037" t="inlineStr">
+        <is>
+          <t>PAVREIT</t>
+        </is>
+      </c>
+      <c r="E2037" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="F2037" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G2037" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="H2037" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="I2037" t="n">
+        <v>2607100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5212.xlsx
+++ b/data/5212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2037"/>
+  <dimension ref="A1:I2038"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71675,6 +71675,41 @@
         <v>2607100</v>
       </c>
     </row>
+    <row r="2038">
+      <c r="A2038" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2038" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2038" t="inlineStr">
+        <is>
+          <t>5212</t>
+        </is>
+      </c>
+      <c r="D2038" t="inlineStr">
+        <is>
+          <t>PAVREIT</t>
+        </is>
+      </c>
+      <c r="E2038" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="F2038" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="G2038" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H2038" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="I2038" t="n">
+        <v>2047500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5212.xlsx
+++ b/data/5212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2038"/>
+  <dimension ref="A1:I2039"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71710,6 +71710,41 @@
         <v>2047500</v>
       </c>
     </row>
+    <row r="2039">
+      <c r="A2039" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2039" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2039" t="inlineStr">
+        <is>
+          <t>5212</t>
+        </is>
+      </c>
+      <c r="D2039" t="inlineStr">
+        <is>
+          <t>PAVREIT</t>
+        </is>
+      </c>
+      <c r="E2039" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="F2039" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="G2039" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="H2039" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="I2039" t="n">
+        <v>97500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5212.xlsx
+++ b/data/5212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2039"/>
+  <dimension ref="A1:I2040"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71745,6 +71745,41 @@
         <v>97500</v>
       </c>
     </row>
+    <row r="2040">
+      <c r="A2040" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2040" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2040" t="inlineStr">
+        <is>
+          <t>5212</t>
+        </is>
+      </c>
+      <c r="D2040" t="inlineStr">
+        <is>
+          <t>PAVREIT</t>
+        </is>
+      </c>
+      <c r="E2040" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="F2040" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="G2040" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="H2040" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="I2040" t="n">
+        <v>513400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5212.xlsx
+++ b/data/5212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2040"/>
+  <dimension ref="A1:I2041"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71780,6 +71780,41 @@
         <v>513400</v>
       </c>
     </row>
+    <row r="2041">
+      <c r="A2041" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2041" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2041" t="inlineStr">
+        <is>
+          <t>5212</t>
+        </is>
+      </c>
+      <c r="D2041" t="inlineStr">
+        <is>
+          <t>PAVREIT</t>
+        </is>
+      </c>
+      <c r="E2041" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="F2041" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G2041" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="H2041" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I2041" t="n">
+        <v>328600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5212.xlsx
+++ b/data/5212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2041"/>
+  <dimension ref="A1:I2042"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71815,6 +71815,41 @@
         <v>328600</v>
       </c>
     </row>
+    <row r="2042">
+      <c r="A2042" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2042" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2042" t="inlineStr">
+        <is>
+          <t>5212</t>
+        </is>
+      </c>
+      <c r="D2042" t="inlineStr">
+        <is>
+          <t>PAVREIT</t>
+        </is>
+      </c>
+      <c r="E2042" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F2042" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G2042" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H2042" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="I2042" t="n">
+        <v>2270200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5212.xlsx
+++ b/data/5212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2042"/>
+  <dimension ref="A1:I2043"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71850,6 +71850,41 @@
         <v>2270200</v>
       </c>
     </row>
+    <row r="2043">
+      <c r="A2043" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2043" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2043" t="inlineStr">
+        <is>
+          <t>5212</t>
+        </is>
+      </c>
+      <c r="D2043" t="inlineStr">
+        <is>
+          <t>PAVREIT</t>
+        </is>
+      </c>
+      <c r="E2043" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="F2043" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="G2043" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="H2043" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="I2043" t="n">
+        <v>634200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5212.xlsx
+++ b/data/5212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2043"/>
+  <dimension ref="A1:I2044"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71885,6 +71885,41 @@
         <v>634200</v>
       </c>
     </row>
+    <row r="2044">
+      <c r="A2044" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2044" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2044" t="inlineStr">
+        <is>
+          <t>5212</t>
+        </is>
+      </c>
+      <c r="D2044" t="inlineStr">
+        <is>
+          <t>PAVREIT</t>
+        </is>
+      </c>
+      <c r="E2044" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F2044" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="G2044" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="H2044" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="I2044" t="n">
+        <v>3182300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5212.xlsx
+++ b/data/5212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2044"/>
+  <dimension ref="A1:I2045"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71920,6 +71920,41 @@
         <v>3182300</v>
       </c>
     </row>
+    <row r="2045">
+      <c r="A2045" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2045" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2045" t="inlineStr">
+        <is>
+          <t>5212</t>
+        </is>
+      </c>
+      <c r="D2045" t="inlineStr">
+        <is>
+          <t>PAVREIT</t>
+        </is>
+      </c>
+      <c r="E2045" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="F2045" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="G2045" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H2045" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="I2045" t="n">
+        <v>2217200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5212.xlsx
+++ b/data/5212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2045"/>
+  <dimension ref="A1:I2046"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71955,6 +71955,41 @@
         <v>2217200</v>
       </c>
     </row>
+    <row r="2046">
+      <c r="A2046" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2046" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2046" t="inlineStr">
+        <is>
+          <t>5212</t>
+        </is>
+      </c>
+      <c r="D2046" t="inlineStr">
+        <is>
+          <t>PAVREIT</t>
+        </is>
+      </c>
+      <c r="E2046" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="F2046" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G2046" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="H2046" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="I2046" t="n">
+        <v>703700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5212.xlsx
+++ b/data/5212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2046"/>
+  <dimension ref="A1:I2047"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71990,6 +71990,41 @@
         <v>703700</v>
       </c>
     </row>
+    <row r="2047">
+      <c r="A2047" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2047" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2047" t="inlineStr">
+        <is>
+          <t>5212</t>
+        </is>
+      </c>
+      <c r="D2047" t="inlineStr">
+        <is>
+          <t>PAVREIT</t>
+        </is>
+      </c>
+      <c r="E2047" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="F2047" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="G2047" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H2047" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="I2047" t="n">
+        <v>350700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5212.xlsx
+++ b/data/5212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2047"/>
+  <dimension ref="A1:I2048"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72025,6 +72025,41 @@
         <v>350700</v>
       </c>
     </row>
+    <row r="2048">
+      <c r="A2048" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2048" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2048" t="inlineStr">
+        <is>
+          <t>5212</t>
+        </is>
+      </c>
+      <c r="D2048" t="inlineStr">
+        <is>
+          <t>PAVREIT</t>
+        </is>
+      </c>
+      <c r="E2048" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F2048" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G2048" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H2048" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="I2048" t="n">
+        <v>143100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5212.xlsx
+++ b/data/5212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2048"/>
+  <dimension ref="A1:I2049"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72060,6 +72060,41 @@
         <v>143100</v>
       </c>
     </row>
+    <row r="2049">
+      <c r="A2049" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2049" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2049" t="inlineStr">
+        <is>
+          <t>5212</t>
+        </is>
+      </c>
+      <c r="D2049" t="inlineStr">
+        <is>
+          <t>PAVREIT</t>
+        </is>
+      </c>
+      <c r="E2049" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="F2049" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="G2049" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H2049" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="I2049" t="n">
+        <v>422900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5212.xlsx
+++ b/data/5212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2049"/>
+  <dimension ref="A1:I2050"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72095,6 +72095,41 @@
         <v>422900</v>
       </c>
     </row>
+    <row r="2050">
+      <c r="A2050" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2050" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2050" t="inlineStr">
+        <is>
+          <t>5212</t>
+        </is>
+      </c>
+      <c r="D2050" t="inlineStr">
+        <is>
+          <t>PAVREIT</t>
+        </is>
+      </c>
+      <c r="E2050" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="F2050" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G2050" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H2050" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="I2050" t="n">
+        <v>36800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5212.xlsx
+++ b/data/5212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2050"/>
+  <dimension ref="A1:I2051"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72130,6 +72130,41 @@
         <v>36800</v>
       </c>
     </row>
+    <row r="2051">
+      <c r="A2051" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2051" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2051" t="inlineStr">
+        <is>
+          <t>5212</t>
+        </is>
+      </c>
+      <c r="D2051" t="inlineStr">
+        <is>
+          <t>PAVREIT</t>
+        </is>
+      </c>
+      <c r="E2051" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F2051" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G2051" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H2051" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="I2051" t="n">
+        <v>500900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5212.xlsx
+++ b/data/5212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2051"/>
+  <dimension ref="A1:I2052"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72165,6 +72165,41 @@
         <v>500900</v>
       </c>
     </row>
+    <row r="2052">
+      <c r="A2052" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2052" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2052" t="inlineStr">
+        <is>
+          <t>5212</t>
+        </is>
+      </c>
+      <c r="D2052" t="inlineStr">
+        <is>
+          <t>PAVREIT</t>
+        </is>
+      </c>
+      <c r="E2052" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="F2052" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="G2052" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="H2052" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="I2052" t="n">
+        <v>504400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5212.xlsx
+++ b/data/5212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2052"/>
+  <dimension ref="A1:I2053"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72200,6 +72200,41 @@
         <v>504400</v>
       </c>
     </row>
+    <row r="2053">
+      <c r="A2053" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2053" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2053" t="inlineStr">
+        <is>
+          <t>5212</t>
+        </is>
+      </c>
+      <c r="D2053" t="inlineStr">
+        <is>
+          <t>PAVREIT</t>
+        </is>
+      </c>
+      <c r="E2053" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="F2053" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="G2053" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="H2053" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="I2053" t="n">
+        <v>1061100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5212.xlsx
+++ b/data/5212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2053"/>
+  <dimension ref="A1:I2054"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72235,6 +72235,41 @@
         <v>1061100</v>
       </c>
     </row>
+    <row r="2054">
+      <c r="A2054" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2054" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2054" t="inlineStr">
+        <is>
+          <t>5212</t>
+        </is>
+      </c>
+      <c r="D2054" t="inlineStr">
+        <is>
+          <t>PAVREIT</t>
+        </is>
+      </c>
+      <c r="E2054" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="F2054" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="G2054" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H2054" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I2054" t="n">
+        <v>556000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5212.xlsx
+++ b/data/5212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2054"/>
+  <dimension ref="A1:I2055"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72270,6 +72270,41 @@
         <v>556000</v>
       </c>
     </row>
+    <row r="2055">
+      <c r="A2055" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2055" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2055" t="inlineStr">
+        <is>
+          <t>5212</t>
+        </is>
+      </c>
+      <c r="D2055" t="inlineStr">
+        <is>
+          <t>PAVREIT</t>
+        </is>
+      </c>
+      <c r="E2055" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="F2055" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G2055" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H2055" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="I2055" t="n">
+        <v>426400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5212.xlsx
+++ b/data/5212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2055"/>
+  <dimension ref="A1:I2057"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72305,6 +72305,76 @@
         <v>426400</v>
       </c>
     </row>
+    <row r="2056">
+      <c r="A2056" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2056" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2056" t="inlineStr">
+        <is>
+          <t>5212</t>
+        </is>
+      </c>
+      <c r="D2056" t="inlineStr">
+        <is>
+          <t>PAVREIT</t>
+        </is>
+      </c>
+      <c r="E2056" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="F2056" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="G2056" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="H2056" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="I2056" t="n">
+        <v>275100</v>
+      </c>
+    </row>
+    <row r="2057">
+      <c r="A2057" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2057" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2057" t="inlineStr">
+        <is>
+          <t>5212</t>
+        </is>
+      </c>
+      <c r="D2057" t="inlineStr">
+        <is>
+          <t>PAVREIT</t>
+        </is>
+      </c>
+      <c r="E2057" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="F2057" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="G2057" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H2057" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="I2057" t="n">
+        <v>173800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5212.xlsx
+++ b/data/5212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2057"/>
+  <dimension ref="A1:I2058"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72375,6 +72375,41 @@
         <v>173800</v>
       </c>
     </row>
+    <row r="2058">
+      <c r="A2058" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2058" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2058" t="inlineStr">
+        <is>
+          <t>5212</t>
+        </is>
+      </c>
+      <c r="D2058" t="inlineStr">
+        <is>
+          <t>PAVREIT</t>
+        </is>
+      </c>
+      <c r="E2058" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F2058" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="G2058" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="H2058" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="I2058" t="n">
+        <v>102500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5212.xlsx
+++ b/data/5212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2058"/>
+  <dimension ref="A1:I2061"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72410,6 +72410,111 @@
         <v>102500</v>
       </c>
     </row>
+    <row r="2059">
+      <c r="A2059" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2059" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2059" t="inlineStr">
+        <is>
+          <t>5212</t>
+        </is>
+      </c>
+      <c r="D2059" t="inlineStr">
+        <is>
+          <t>PAVREIT</t>
+        </is>
+      </c>
+      <c r="E2059" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F2059" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G2059" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="H2059" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I2059" t="n">
+        <v>46800</v>
+      </c>
+    </row>
+    <row r="2060">
+      <c r="A2060" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2060" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2060" t="inlineStr">
+        <is>
+          <t>5212</t>
+        </is>
+      </c>
+      <c r="D2060" t="inlineStr">
+        <is>
+          <t>PAVREIT</t>
+        </is>
+      </c>
+      <c r="E2060" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F2060" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="G2060" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H2060" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="I2060" t="n">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="2061">
+      <c r="A2061" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2061" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2061" t="inlineStr">
+        <is>
+          <t>5212</t>
+        </is>
+      </c>
+      <c r="D2061" t="inlineStr">
+        <is>
+          <t>PAVREIT</t>
+        </is>
+      </c>
+      <c r="E2061" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="F2061" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="G2061" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H2061" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="I2061" t="n">
+        <v>84000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5212.xlsx
+++ b/data/5212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2061"/>
+  <dimension ref="A1:I2062"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72515,6 +72515,41 @@
         <v>84000</v>
       </c>
     </row>
+    <row r="2062">
+      <c r="A2062" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2062" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2062" t="inlineStr">
+        <is>
+          <t>5212</t>
+        </is>
+      </c>
+      <c r="D2062" t="inlineStr">
+        <is>
+          <t>PAVREIT</t>
+        </is>
+      </c>
+      <c r="E2062" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F2062" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G2062" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H2062" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="I2062" t="n">
+        <v>48500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5212.xlsx
+++ b/data/5212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2062"/>
+  <dimension ref="A1:I2063"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72550,6 +72550,41 @@
         <v>48500</v>
       </c>
     </row>
+    <row r="2063">
+      <c r="A2063" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2063" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2063" t="inlineStr">
+        <is>
+          <t>5212</t>
+        </is>
+      </c>
+      <c r="D2063" t="inlineStr">
+        <is>
+          <t>PAVREIT</t>
+        </is>
+      </c>
+      <c r="E2063" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="F2063" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G2063" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="H2063" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I2063" t="n">
+        <v>622000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5212.xlsx
+++ b/data/5212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2063"/>
+  <dimension ref="A1:I2066"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72585,6 +72585,111 @@
         <v>622000</v>
       </c>
     </row>
+    <row r="2064">
+      <c r="A2064" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2064" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2064" t="inlineStr">
+        <is>
+          <t>5212</t>
+        </is>
+      </c>
+      <c r="D2064" t="inlineStr">
+        <is>
+          <t>PAVREIT</t>
+        </is>
+      </c>
+      <c r="E2064" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F2064" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G2064" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="H2064" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="I2064" t="n">
+        <v>916900</v>
+      </c>
+    </row>
+    <row r="2065">
+      <c r="A2065" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2065" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2065" t="inlineStr">
+        <is>
+          <t>5212</t>
+        </is>
+      </c>
+      <c r="D2065" t="inlineStr">
+        <is>
+          <t>PAVREIT</t>
+        </is>
+      </c>
+      <c r="E2065" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F2065" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G2065" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="H2065" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="I2065" t="n">
+        <v>1077800</v>
+      </c>
+    </row>
+    <row r="2066">
+      <c r="A2066" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2066" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2066" t="inlineStr">
+        <is>
+          <t>5212</t>
+        </is>
+      </c>
+      <c r="D2066" t="inlineStr">
+        <is>
+          <t>PAVREIT</t>
+        </is>
+      </c>
+      <c r="E2066" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="F2066" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G2066" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H2066" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="I2066" t="n">
+        <v>1221200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
